--- a/results/gurobi_cplex_comparison/seed_50_k_10.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_10.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.016</v>
+        <v>0.298</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
       <c r="F3">
-        <v>0.042</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F4">
-        <v>0.019</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.013</v>
+        <v>0.722</v>
       </c>
       <c r="F5">
-        <v>0.048</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>0.909</v>
       </c>
       <c r="F6">
-        <v>0.041</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.056</v>
+        <v>1.161</v>
       </c>
       <c r="F7">
-        <v>0.173</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.014</v>
+        <v>1.355</v>
       </c>
       <c r="F8">
-        <v>0.04</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.047</v>
+        <v>1.731</v>
       </c>
       <c r="F9">
-        <v>0.142</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.048</v>
+        <v>1.917</v>
       </c>
       <c r="F10">
-        <v>0.075</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.013</v>
+        <v>2.179</v>
       </c>
       <c r="F11">
-        <v>0.037</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.109</v>
+        <v>2.58</v>
       </c>
       <c r="F12">
-        <v>0.183</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.067</v>
+        <v>2.937</v>
       </c>
       <c r="F13">
-        <v>0.197</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.109</v>
+        <v>3.349</v>
       </c>
       <c r="F14">
-        <v>104.42</v>
+        <v>98.896</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.023</v>
+        <v>3.59</v>
       </c>
       <c r="F15">
-        <v>0.05</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08799999999999999</v>
+        <v>4.147</v>
       </c>
       <c r="F16">
-        <v>50.629</v>
+        <v>86.276</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.184</v>
+        <v>4.649</v>
       </c>
       <c r="F17">
-        <v>102.408</v>
+        <v>54.209</v>
       </c>
     </row>
   </sheetData>
